--- a/AAII_Financials/Yearly/ANCTF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ANCTF_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Yearly/ANCTF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ANCTF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>ANCTF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,143 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44675</v>
+      </c>
+      <c r="E7" s="2">
         <v>44311</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43947</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43583</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43219</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42855</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42484</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42120</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>62809900</v>
+      </c>
+      <c r="E8" s="3">
         <v>45760100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>54132400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>59117600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>51394400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>37904500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>34144600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>34529900</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>51805100</v>
+      </c>
+      <c r="E9" s="3">
         <v>35644800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>88886600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>49922700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>43282900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>31422700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>28063100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>29261900</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>11004800</v>
+      </c>
+      <c r="E10" s="3">
         <v>10115300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-34754200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9194900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8111500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6481800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6081500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5268000</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,8 +813,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,9 +840,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,63 +870,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E14" s="3">
         <v>11000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>15900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>67700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>62100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-74600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>37500</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1545700</v>
+      </c>
+      <c r="E15" s="3">
         <v>1358900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1332100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1015700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1817000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>667600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>632400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>533900</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -919,62 +944,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>59131400</v>
+      </c>
+      <c r="E17" s="3">
         <v>42084500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>50969900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>56628700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>49357500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>36206800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>32474800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>33210200</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3678500</v>
+      </c>
+      <c r="E18" s="3">
         <v>3675600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3162500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2488900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2036900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1697700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1669800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1319700</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -986,143 +1018,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-15000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>47500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-41100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-18400</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5268600</v>
+      </c>
+      <c r="E21" s="3">
         <v>5024200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4553800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3522000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2874600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2357200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2280700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1759300</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>301100</v>
+      </c>
+      <c r="E22" s="3">
         <v>301500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>306500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>290700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>262200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>110200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>83400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>65100</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3417600</v>
+      </c>
+      <c r="E23" s="3">
         <v>3359100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2903500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2192200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1733600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1592100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1592300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1236200</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>734300</v>
+      </c>
+      <c r="E24" s="3">
         <v>653600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>545900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>370900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>344400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>383200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>398600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>306200</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,63 +1195,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2683300</v>
+      </c>
+      <c r="E26" s="3">
         <v>2705500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2357600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1821300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1389200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1208900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1193700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>930000</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2683300</v>
+      </c>
+      <c r="E27" s="3">
         <v>2705500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2353600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1833900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1382300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1208900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1193500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>929300</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,9 +1285,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1243,11 +1303,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>288300</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1255,9 +1315,12 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,9 +1345,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,63 +1375,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="E32" s="3">
         <v>15000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-47500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>41100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>18400</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2683300</v>
+      </c>
+      <c r="E33" s="3">
         <v>2705500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2353600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1833900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1670600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1208900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1193500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>929300</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,68 +1465,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2683300</v>
+      </c>
+      <c r="E35" s="3">
         <v>2705500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2353600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1833900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1670600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1208900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1193500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>929300</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44675</v>
+      </c>
+      <c r="E38" s="2">
         <v>44311</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43947</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43583</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43219</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42855</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42484</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42120</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1463,8 +1547,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1476,251 +1561,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2143900</v>
+      </c>
+      <c r="E41" s="3">
         <v>3015800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3641500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>706400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1331700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1230300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1196700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1129500</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E42" s="3">
         <v>11000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>38600</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>2500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>52500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>22100</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2582700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1877300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1345400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2027000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2240200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3090500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2773700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2470600</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2403000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1767600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1237400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1467700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1369000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1730000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1633400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1687200</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>175600</v>
+      </c>
+      <c r="E45" s="3">
         <v>450200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>168000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>120200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>199900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>66400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>62400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>63100</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7328300</v>
+      </c>
+      <c r="E46" s="3">
         <v>7121900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6430900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4321300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4477100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3172900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2881800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2742300</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>250600</v>
+      </c>
+      <c r="E47" s="3">
         <v>318600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>286600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>211500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>217300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>185400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>168000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>157000</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>14588400</v>
+      </c>
+      <c r="E48" s="3">
         <v>13939200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12650400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11129900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>22364500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>15022800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12743000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11200200</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6781600</v>
+      </c>
+      <c r="E49" s="3">
         <v>6663200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6056600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6627500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6965000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3735600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3285000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3025400</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,9 +1858,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,36 +1888,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>642700</v>
+      </c>
+      <c r="E52" s="3">
         <v>351600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>255000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>317500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>282700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>589000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>659300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>425300</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,36 +1948,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>29591600</v>
+      </c>
+      <c r="E54" s="3">
         <v>28394500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>25679500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22607700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>23159200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14185600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12264800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11028400</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1867,8 +1995,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1880,170 +2009,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3716700</v>
+      </c>
+      <c r="E57" s="3">
         <v>2577600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1507600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2550100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6274400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4370300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3894000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3621500</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>426800</v>
+      </c>
+      <c r="E58" s="3">
         <v>1526700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>597800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1310700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>44500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>253200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>29200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>21400</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1873900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1845400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1638900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1721200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1683500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1359800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1205600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1061600</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6017400</v>
+      </c>
+      <c r="E60" s="3">
         <v>5949700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3744300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5582000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4189600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3251900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2659800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2470300</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9013100</v>
+      </c>
+      <c r="E61" s="3">
         <v>8075300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9781500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5640700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8861400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3101700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2808900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3046900</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2123500</v>
+      </c>
+      <c r="E62" s="3">
         <v>2188600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2087100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2203900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2220800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2089600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1755000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1608200</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,9 +2216,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,9 +2246,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,36 +2276,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17154000</v>
+      </c>
+      <c r="E66" s="3">
         <v>16213600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15612900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13684500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15598800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8176000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7223700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7139300</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2163,8 +2323,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,9 +2350,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,9 +2380,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,9 +2410,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,36 +2440,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12521000</v>
+      </c>
+      <c r="E72" s="3">
         <v>12017800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10611300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9053500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7405000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6083500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5019900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3919800</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,9 +2500,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,9 +2530,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,36 +2560,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12437600</v>
+      </c>
+      <c r="E76" s="3">
         <v>12180900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10066600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8923200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7560400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6009600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5041100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3889100</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,68 +2620,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44675</v>
+      </c>
+      <c r="E80" s="2">
         <v>44311</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43947</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43583</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43219</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42855</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42484</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42120</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2683300</v>
+      </c>
+      <c r="E81" s="3">
         <v>2705500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2353600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1833900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1670600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1208900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1193500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>929300</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2505,35 +2702,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1549900</v>
+      </c>
+      <c r="E83" s="3">
         <v>1363600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1343800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1039100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>878800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>654900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>605000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>458000</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,9 +2759,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,9 +2789,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,9 +2819,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,9 +2849,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,36 +2879,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3944900</v>
+      </c>
+      <c r="E89" s="3">
         <v>4086600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3720700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3083600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2163100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1925500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1887900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1714500</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2707,35 +2926,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1664500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1222200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1408200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1145100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1169300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-994100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-905700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-634500</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,9 +2983,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,36 +3013,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1799400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1385600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1213800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-935200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5444500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2387500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1181300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1398800</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2828,35 +3060,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-330100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-268300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-215700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-181300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-162400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-145300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-104100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-86900</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,9 +3117,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,9 +3147,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,88 +3177,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2951100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3429600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>480700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2053800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3277000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>498400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-702600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-141500</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-66300</v>
+      </c>
+      <c r="E101" s="3">
         <v>102900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-52500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-54400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>33000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>19600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-107700</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-871900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-625700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2935100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>40200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>28600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>38200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>23600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>66500</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ANCTF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ANCTF_YR_FIN.xlsx
@@ -1748,10 +1748,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>250600</v>
+        <v>523300</v>
       </c>
       <c r="E47" s="3">
-        <v>318600</v>
+        <v>338700</v>
       </c>
       <c r="F47" s="3">
         <v>286600</v>
@@ -1898,10 +1898,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>642700</v>
+        <v>370000</v>
       </c>
       <c r="E52" s="3">
-        <v>351600</v>
+        <v>331500</v>
       </c>
       <c r="F52" s="3">
         <v>255000</v>

--- a/AAII_Financials/Yearly/ANCTF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ANCTF_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>ANCTF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44675</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44311</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43947</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43583</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43219</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42855</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42484</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42120</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>71856700</v>
+      </c>
+      <c r="E8" s="3">
         <v>62809900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>45760100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>54132400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>59117600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>51394400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>37904500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>34144600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>34529900</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>59804600</v>
+      </c>
+      <c r="E9" s="3">
         <v>51805100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>35644800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>88886600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>49922700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>43282900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>31422700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>28063100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>29261900</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>12052100</v>
+      </c>
+      <c r="E10" s="3">
         <v>11004800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10115300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-34754200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9194900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8111500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6481800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6081500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5268000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,8 +826,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -843,9 +856,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,69 +889,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E14" s="3">
         <v>1500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>11000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>15900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>67700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>62100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-74600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>37500</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1525900</v>
+      </c>
+      <c r="E15" s="3">
         <v>1545700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1358900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1332100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1015700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1817000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>667600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>632400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>533900</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -945,68 +970,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>67624700</v>
+      </c>
+      <c r="E17" s="3">
         <v>59131400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>42084500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>50969900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>56628700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>49357500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>36206800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>32474800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>33210200</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4232000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3678500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3675600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3162500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2488900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2036900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1697700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1669800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1319700</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,158 +1051,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E20" s="3">
         <v>40200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-15000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>47500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-41100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-18400</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5815500</v>
+      </c>
+      <c r="E21" s="3">
         <v>5268600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5024200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4553800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3522000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2874600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2357200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2280700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1759300</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>352900</v>
+      </c>
+      <c r="E22" s="3">
         <v>301100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>301500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>306500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>290700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>262200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>110200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>83400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>65100</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3929100</v>
+      </c>
+      <c r="E23" s="3">
         <v>3417600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3359100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2903500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2192200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1733600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1592100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1592300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1236200</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>838200</v>
+      </c>
+      <c r="E24" s="3">
         <v>734300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>653600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>545900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>370900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>344400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>383200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>398600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>306200</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1198,69 +1246,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3090900</v>
+      </c>
+      <c r="E26" s="3">
         <v>2683300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2705500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2357600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1821300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1389200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1208900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1193700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>930000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3090900</v>
+      </c>
+      <c r="E27" s="3">
         <v>2683300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2705500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2353600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1833900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1382300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1208900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1193500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>929300</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,9 +1345,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1306,11 +1366,11 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>288300</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1318,9 +1378,12 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,9 +1411,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1378,69 +1444,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-40200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>15000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-47500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>41100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>18400</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3090900</v>
+      </c>
+      <c r="E33" s="3">
         <v>2683300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2705500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2353600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1833900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1670600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1208900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1193500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>929300</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,74 +1543,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3090900</v>
+      </c>
+      <c r="E35" s="3">
         <v>2683300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2705500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2353600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1833900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1670600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1208900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1193500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>929300</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44675</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44311</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43947</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43583</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43219</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42855</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42484</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42120</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1632,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1562,278 +1647,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>834200</v>
+      </c>
+      <c r="E41" s="3">
         <v>2143900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3015800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3641500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>706400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1331700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1230300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1196700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1129500</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E42" s="3">
         <v>23100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>11000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>38600</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>2500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>52500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>22100</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2399000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2582700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1877300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1345400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2027000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2240200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3090500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2773700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2470600</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2176000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2403000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1767600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1237400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1467700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1369000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1730000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1633400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1687200</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>165400</v>
+      </c>
+      <c r="E45" s="3">
         <v>175600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>450200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>168000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>120200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>199900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>66400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>62400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>63100</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5669600</v>
+      </c>
+      <c r="E46" s="3">
         <v>7328300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7121900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6430900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4321300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4477100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3172900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2881800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2742300</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>435600</v>
+      </c>
+      <c r="E47" s="3">
         <v>523300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>338700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>286600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>211500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>217300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>185400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>168000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>157000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15258100</v>
+      </c>
+      <c r="E48" s="3">
         <v>14588400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13939200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12650400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11129900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>22364500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>15022800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12743000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11200200</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7383700</v>
+      </c>
+      <c r="E49" s="3">
         <v>6781600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>6663200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6056600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>6627500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>6965000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3735600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3285000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3025400</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1974,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1891,39 +2007,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>302200</v>
+      </c>
+      <c r="E52" s="3">
         <v>370000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>331500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>255000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>317500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>282700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>589000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>659300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>425300</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,39 +2073,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>29049200</v>
+      </c>
+      <c r="E54" s="3">
         <v>29591600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>28394500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>25679500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>22607700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>23159200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14185600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12264800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11028400</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2124,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2010,188 +2139,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3181700</v>
+      </c>
+      <c r="E57" s="3">
         <v>3716700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2577600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1507600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2550100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6274400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4370300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3894000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3621500</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>438800</v>
+      </c>
+      <c r="E58" s="3">
         <v>426800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1526700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>597800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1310700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>44500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>253200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>29200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>21400</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1544500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1873900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1845400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1638900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1721200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1683500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1359800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1205600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1061600</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5165000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6017400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5949700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3744300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5582000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4189600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3251900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2659800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2470300</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9027100</v>
+      </c>
+      <c r="E61" s="3">
         <v>9013100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8075300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9781500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5640700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8861400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3101700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2808900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3046900</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2292600</v>
+      </c>
+      <c r="E62" s="3">
         <v>2123500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2188600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2087100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2203900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2220800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2089600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1755000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1608200</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,9 +2367,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2249,9 +2400,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,39 +2433,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16484700</v>
+      </c>
+      <c r="E66" s="3">
         <v>17154000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16213600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15612900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13684500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15598800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8176000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7223700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7139300</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2484,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2353,9 +2514,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2383,9 +2547,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2413,9 +2580,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2443,39 +2613,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12934600</v>
+      </c>
+      <c r="E72" s="3">
         <v>12521000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12017800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10611300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9053500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7405000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6083500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5019900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3919800</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2679,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,9 +2712,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2563,39 +2745,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12564500</v>
+      </c>
+      <c r="E76" s="3">
         <v>12437600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12180900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10066600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8923200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7560400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6009600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5041100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3889100</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2623,74 +2811,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44675</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44311</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43947</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43583</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43219</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42855</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42484</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42120</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3090900</v>
+      </c>
+      <c r="E81" s="3">
         <v>2683300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2705500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2353600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1833900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1670600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1208900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1193500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>929300</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2703,38 +2900,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1533500</v>
+      </c>
+      <c r="E83" s="3">
         <v>1549900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1363600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1343800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1039100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>878800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>654900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>605000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>458000</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2762,9 +2963,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2792,9 +2996,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2822,9 +3029,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2852,9 +3062,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2882,39 +3095,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4344600</v>
+      </c>
+      <c r="E89" s="3">
         <v>3944900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4086600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3720700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3083600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2163100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1925500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1887900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1714500</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,38 +3146,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1803800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1664500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1222200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1408200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1145100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1169300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-994100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-905700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-634500</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2986,9 +3209,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3016,39 +3242,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2275600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1799400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1385600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1213800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-935200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5444500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2387500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1181300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1398800</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3061,38 +3293,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-377700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-330100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-268300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-215700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-181300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-162400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-145300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-104100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-86900</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3120,9 +3356,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3150,9 +3389,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3180,97 +3422,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3349700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2951100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3429600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>480700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2053800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3277000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>498400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-702600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-141500</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-66300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>102900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-52500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-54400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>33000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>19600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-107700</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1309700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-871900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-625700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2935100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>40200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>28600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>38200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>23600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>66500</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
